--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,6 +484,10 @@
   </si>
   <si>
     <t>SA15002003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,7 +855,7 @@
     <col min="1" max="1" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -861,8 +865,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -871,7 +878,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -881,8 +888,11 @@
       <c r="D3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -892,8 +902,11 @@
       <c r="D4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -901,7 +914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -911,8 +924,11 @@
       <c r="D6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -922,16 +938,22 @@
       <c r="D7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -941,8 +963,11 @@
       <c r="D9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -952,8 +977,11 @@
       <c r="D10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -961,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -971,8 +999,11 @@
       <c r="D12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -980,7 +1011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -990,8 +1021,11 @@
       <c r="D14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1001,8 +1035,11 @@
       <c r="D15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1012,8 +1049,11 @@
       <c r="D16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1023,8 +1063,11 @@
       <c r="D17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1034,8 +1077,11 @@
       <c r="D18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1045,8 +1091,11 @@
       <c r="D19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1056,8 +1105,11 @@
       <c r="D20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1067,8 +1119,11 @@
       <c r="D21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1078,8 +1133,11 @@
       <c r="D22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1089,8 +1147,11 @@
       <c r="D23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1100,8 +1161,11 @@
       <c r="D24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1111,16 +1175,22 @@
       <c r="D25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1130,8 +1200,11 @@
       <c r="D27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1141,8 +1214,11 @@
       <c r="D28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1152,8 +1228,11 @@
       <c r="D29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1163,8 +1242,11 @@
       <c r="D30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1174,8 +1256,11 @@
       <c r="D31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1185,8 +1270,11 @@
       <c r="D32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1196,8 +1284,11 @@
       <c r="D33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1207,8 +1298,11 @@
       <c r="D34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1219,7 +1313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1229,8 +1323,11 @@
       <c r="D36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1240,8 +1337,11 @@
       <c r="D37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1251,8 +1351,11 @@
       <c r="D38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1262,8 +1365,11 @@
       <c r="D39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1273,8 +1379,11 @@
       <c r="D40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1284,8 +1393,11 @@
       <c r="D41">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1295,8 +1407,11 @@
       <c r="D42">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1306,8 +1421,11 @@
       <c r="D43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1317,8 +1435,11 @@
       <c r="D44">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1328,8 +1449,11 @@
       <c r="D45">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1339,8 +1463,11 @@
       <c r="D46">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1350,8 +1477,11 @@
       <c r="D47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1361,8 +1491,11 @@
       <c r="D48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1372,8 +1505,11 @@
       <c r="D49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1383,8 +1519,11 @@
       <c r="D50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1394,8 +1533,11 @@
       <c r="D51">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1405,8 +1547,11 @@
       <c r="D52">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1416,8 +1561,11 @@
       <c r="D53">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1427,8 +1575,11 @@
       <c r="D54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1438,8 +1589,11 @@
       <c r="D55">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1450,7 +1604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1460,8 +1614,11 @@
       <c r="D57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1471,8 +1628,11 @@
       <c r="D58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1482,8 +1642,11 @@
       <c r="D59">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1493,8 +1656,11 @@
       <c r="D60">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1504,8 +1670,11 @@
       <c r="D61">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1515,8 +1684,11 @@
       <c r="D62">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1526,8 +1698,11 @@
       <c r="D63">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1537,8 +1712,11 @@
       <c r="D64">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1548,8 +1726,11 @@
       <c r="D65">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1559,8 +1740,11 @@
       <c r="D66">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1568,7 +1752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1578,8 +1762,11 @@
       <c r="D68">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1589,8 +1776,11 @@
       <c r="D69">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1598,7 +1788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1608,8 +1798,11 @@
       <c r="D71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1619,8 +1812,11 @@
       <c r="D72">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1630,8 +1826,11 @@
       <c r="D73">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1641,8 +1840,11 @@
       <c r="D74">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -1652,8 +1854,11 @@
       <c r="D75">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1663,8 +1868,11 @@
       <c r="D76">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1674,16 +1882,22 @@
       <c r="D77">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1693,8 +1907,11 @@
       <c r="D79">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1705,7 +1922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1716,7 +1933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -1726,8 +1943,11 @@
       <c r="D82">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -1737,8 +1957,11 @@
       <c r="D83">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -1748,8 +1971,11 @@
       <c r="D84">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -1759,8 +1985,11 @@
       <c r="D85">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -1770,8 +1999,11 @@
       <c r="D86">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -1779,7 +2011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -1789,8 +2021,11 @@
       <c r="D88">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -1800,8 +2035,11 @@
       <c r="D89">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -1811,8 +2049,11 @@
       <c r="D90">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -1822,8 +2063,11 @@
       <c r="D91">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -1833,8 +2077,11 @@
       <c r="D92">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -1844,8 +2091,11 @@
       <c r="D93">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -1855,8 +2105,11 @@
       <c r="D94">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -1866,8 +2119,11 @@
       <c r="D95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -1877,8 +2133,11 @@
       <c r="D96">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -1888,8 +2147,11 @@
       <c r="D97">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -1899,8 +2161,11 @@
       <c r="D98">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -1910,8 +2175,11 @@
       <c r="D99">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -1921,8 +2189,11 @@
       <c r="D100">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -1932,8 +2203,11 @@
       <c r="D101">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -1943,8 +2217,11 @@
       <c r="D102">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -1955,7 +2232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -1965,8 +2242,11 @@
       <c r="D104">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -1976,8 +2256,11 @@
       <c r="D105">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -1987,8 +2270,11 @@
       <c r="D106">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -1998,8 +2284,11 @@
       <c r="D107">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2009,8 +2298,11 @@
       <c r="D108">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2020,8 +2312,11 @@
       <c r="D109">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2031,8 +2326,11 @@
       <c r="D110">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2043,7 +2341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2053,8 +2351,11 @@
       <c r="D112">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2064,8 +2365,11 @@
       <c r="D113">
         <v>10</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2075,8 +2379,11 @@
       <c r="D114">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2086,8 +2393,11 @@
       <c r="D115">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2098,7 +2408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2108,8 +2418,11 @@
       <c r="D117">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2119,8 +2432,11 @@
       <c r="D118">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2130,8 +2446,11 @@
       <c r="D119">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2141,8 +2460,11 @@
       <c r="D120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2152,8 +2474,11 @@
       <c r="D121">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2163,8 +2488,11 @@
       <c r="D122">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2174,8 +2502,11 @@
       <c r="D123">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2185,8 +2516,11 @@
       <c r="D124">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2197,7 +2531,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2207,8 +2541,11 @@
       <c r="D126">
         <v>10</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E126">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2218,8 +2555,11 @@
       <c r="D127">
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2229,8 +2569,11 @@
       <c r="D128">
         <v>10</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2240,8 +2583,11 @@
       <c r="D129">
         <v>10</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2251,8 +2597,11 @@
       <c r="D130">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2262,8 +2611,11 @@
       <c r="D131">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2273,8 +2625,11 @@
       <c r="D132">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2284,8 +2639,11 @@
       <c r="D133">
         <v>10</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2295,8 +2653,11 @@
       <c r="D134">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2306,8 +2667,11 @@
       <c r="D135">
         <v>10</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2317,8 +2681,11 @@
       <c r="D136">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2328,8 +2695,11 @@
       <c r="D137">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2339,8 +2709,11 @@
       <c r="D138">
         <v>10</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2350,8 +2723,11 @@
       <c r="D139">
         <v>10</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2361,8 +2737,11 @@
       <c r="D140">
         <v>10</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2372,8 +2751,11 @@
       <c r="D141">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2384,7 +2766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -2394,8 +2776,11 @@
       <c r="D143">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -2405,8 +2790,11 @@
       <c r="D144">
         <v>10</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -2416,8 +2804,11 @@
       <c r="D145">
         <v>10</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -2427,8 +2818,11 @@
       <c r="D146">
         <v>10</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -2438,8 +2832,11 @@
       <c r="D147">
         <v>10</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -2447,7 +2844,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -2455,7 +2852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -2463,7 +2860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -2473,8 +2870,11 @@
       <c r="D152">
         <v>10</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -2484,8 +2884,11 @@
       <c r="D153">
         <v>10</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -2493,6 +2896,9 @@
         <v>2</v>
       </c>
       <c r="D154">
+        <v>10</v>
+      </c>
+      <c r="E154">
         <v>10</v>
       </c>
     </row>

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1751,6 +1751,12 @@
       <c r="B67">
         <v>6</v>
       </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67">
+        <v>9</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2413,6 +2413,9 @@
       <c r="D116">
         <v>10</v>
       </c>
+      <c r="E116">
+        <v>7</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" t="s">

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1562,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -2914,5 +2914,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -847,7 +847,7 @@
   <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1603,6 +1603,9 @@
       <c r="D56">
         <v>10</v>
       </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2542,6 +2542,9 @@
       <c r="D125">
         <v>9.5</v>
       </c>
+      <c r="E125">
+        <v>7</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" t="s">

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,6 +488,10 @@
   </si>
   <si>
     <t>第二次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -844,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -855,7 +859,7 @@
     <col min="1" max="1" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -868,8 +872,11 @@
       <c r="E1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -878,7 +885,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -891,8 +898,11 @@
       <c r="E3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -905,8 +915,11 @@
       <c r="E4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -914,7 +927,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -927,8 +940,11 @@
       <c r="E6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -942,7 +958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -952,8 +968,11 @@
       <c r="E8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -966,8 +985,11 @@
       <c r="E9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="E10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -989,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1002,16 +1027,28 @@
       <c r="E12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1024,8 +1061,11 @@
       <c r="E14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1078,11 @@
       <c r="E15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1052,8 +1095,11 @@
       <c r="E16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1066,8 +1112,11 @@
       <c r="E17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1080,8 +1129,11 @@
       <c r="E18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1094,8 +1146,11 @@
       <c r="E19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1108,8 +1163,11 @@
       <c r="E20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1122,8 +1180,11 @@
       <c r="E21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1136,8 +1197,11 @@
       <c r="E22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1150,8 +1214,11 @@
       <c r="E23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1164,8 +1231,11 @@
       <c r="E24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1178,8 +1248,11 @@
       <c r="E25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1189,8 +1262,11 @@
       <c r="E26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1203,8 +1279,11 @@
       <c r="E27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1217,8 +1296,11 @@
       <c r="E28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1231,8 +1313,11 @@
       <c r="E29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1245,8 +1330,11 @@
       <c r="E30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1259,8 +1347,11 @@
       <c r="E31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1273,8 +1364,11 @@
       <c r="E32">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1287,8 +1381,11 @@
       <c r="E33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1301,8 +1398,11 @@
       <c r="E34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1313,7 +1413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1326,8 +1426,11 @@
       <c r="E36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1340,8 +1443,11 @@
       <c r="E37">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1354,8 +1460,11 @@
       <c r="E38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1368,8 +1477,11 @@
       <c r="E39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1382,8 +1494,11 @@
       <c r="E40">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1396,8 +1511,11 @@
       <c r="E41">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1410,8 +1528,11 @@
       <c r="E42">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1424,8 +1545,11 @@
       <c r="E43">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1438,8 +1562,11 @@
       <c r="E44">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1452,8 +1579,11 @@
       <c r="E45">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1466,8 +1596,11 @@
       <c r="E46">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1480,8 +1613,11 @@
       <c r="E47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1494,8 +1630,11 @@
       <c r="E48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1508,8 +1647,11 @@
       <c r="E49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1522,8 +1664,11 @@
       <c r="E50">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1536,8 +1681,11 @@
       <c r="E51">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1550,8 +1698,11 @@
       <c r="E52">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1564,8 +1715,11 @@
       <c r="E53">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1578,8 +1732,11 @@
       <c r="E54">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1592,8 +1749,11 @@
       <c r="E55">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1606,8 +1766,11 @@
       <c r="E56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1620,8 +1783,11 @@
       <c r="E57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1634,8 +1800,11 @@
       <c r="E58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1648,8 +1817,11 @@
       <c r="E59">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1662,8 +1834,11 @@
       <c r="E60">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1676,8 +1851,11 @@
       <c r="E61">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1690,8 +1868,11 @@
       <c r="E62">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1704,8 +1885,11 @@
       <c r="E63">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1718,8 +1902,11 @@
       <c r="E64">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1732,8 +1919,11 @@
       <c r="E65">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1746,8 +1936,11 @@
       <c r="E66">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1760,8 +1953,11 @@
       <c r="E67">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1774,8 +1970,11 @@
       <c r="E68">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1788,16 +1987,22 @@
       <c r="E69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1810,8 +2015,11 @@
       <c r="E71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1824,8 +2032,11 @@
       <c r="E72">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1838,8 +2049,11 @@
       <c r="E73">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1852,8 +2066,11 @@
       <c r="E74">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -1866,8 +2083,11 @@
       <c r="E75">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1880,8 +2100,11 @@
       <c r="E76">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1894,8 +2117,11 @@
       <c r="E77">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1906,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1919,8 +2145,11 @@
       <c r="E79">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1930,8 +2159,11 @@
       <c r="D80">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1942,7 +2174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -1955,8 +2187,11 @@
       <c r="E82">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -1969,8 +2204,11 @@
       <c r="E83">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -1983,8 +2221,11 @@
       <c r="E84">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -1997,8 +2238,11 @@
       <c r="E85">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2011,8 +2255,11 @@
       <c r="E86">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2020,7 +2267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2033,8 +2280,11 @@
       <c r="E88">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2047,8 +2297,11 @@
       <c r="E89">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2061,8 +2314,11 @@
       <c r="E90">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2076,7 +2332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2089,8 +2345,11 @@
       <c r="E92">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2103,8 +2362,11 @@
       <c r="E93">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2117,8 +2379,11 @@
       <c r="E94">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2131,8 +2396,11 @@
       <c r="E95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2143,10 +2411,13 @@
         <v>10</v>
       </c>
       <c r="E96">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2159,8 +2430,11 @@
       <c r="E97">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2173,8 +2447,11 @@
       <c r="E98">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2187,8 +2464,11 @@
       <c r="E99">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2201,8 +2481,11 @@
       <c r="E100">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2215,8 +2498,11 @@
       <c r="E101">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2229,8 +2515,11 @@
       <c r="E102">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2241,7 +2530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2254,8 +2543,11 @@
       <c r="E104">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2268,8 +2560,11 @@
       <c r="E105">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F105">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2282,8 +2577,11 @@
       <c r="E106">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2296,8 +2594,11 @@
       <c r="E107">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2310,8 +2611,11 @@
       <c r="E108">
         <v>10</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2324,8 +2628,11 @@
       <c r="E109">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2338,8 +2645,11 @@
       <c r="E110">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2349,8 +2659,14 @@
       <c r="D111">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E111">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2363,8 +2679,11 @@
       <c r="E112">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2377,8 +2696,11 @@
       <c r="E113">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2391,8 +2713,11 @@
       <c r="E114">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2405,8 +2730,11 @@
       <c r="E115">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2419,8 +2747,11 @@
       <c r="E116">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2434,7 +2765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2447,8 +2778,11 @@
       <c r="E118">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2461,8 +2795,11 @@
       <c r="E119">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2475,8 +2812,11 @@
       <c r="E120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2489,8 +2829,11 @@
       <c r="E121">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2503,8 +2846,11 @@
       <c r="E122">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2517,8 +2863,11 @@
       <c r="E123">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2531,8 +2880,11 @@
       <c r="E124">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2545,8 +2897,11 @@
       <c r="E125">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2559,8 +2914,11 @@
       <c r="E126">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F126">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2573,8 +2931,11 @@
       <c r="E127">
         <v>10</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2587,8 +2948,11 @@
       <c r="E128">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2602,7 +2966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2615,8 +2979,11 @@
       <c r="E130">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2630,7 +2997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2643,8 +3010,11 @@
       <c r="E132">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2657,8 +3027,11 @@
       <c r="E133">
         <v>10</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2671,8 +3044,11 @@
       <c r="E134">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2685,8 +3061,11 @@
       <c r="E135">
         <v>9</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2699,8 +3078,11 @@
       <c r="E136">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2713,8 +3095,11 @@
       <c r="E137">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2727,8 +3112,11 @@
       <c r="E138">
         <v>10</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2741,8 +3129,11 @@
       <c r="E139">
         <v>10</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2755,8 +3146,11 @@
       <c r="E140">
         <v>10</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2769,8 +3163,11 @@
       <c r="E141">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2780,8 +3177,11 @@
       <c r="D142">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -2794,8 +3194,11 @@
       <c r="E143">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -2808,8 +3211,11 @@
       <c r="E144">
         <v>10</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -2822,8 +3228,11 @@
       <c r="E145">
         <v>10</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -2836,8 +3245,11 @@
       <c r="E146">
         <v>10</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -2850,8 +3262,11 @@
       <c r="E147">
         <v>10</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F147">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -2859,7 +3274,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -2867,7 +3282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -2875,7 +3290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -2889,7 +3304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -2902,8 +3317,11 @@
       <c r="E153">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -2914,6 +3332,9 @@
         <v>10</v>
       </c>
       <c r="E154">
+        <v>10</v>
+      </c>
+      <c r="F154">
         <v>10</v>
       </c>
     </row>

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="纸质版作业" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,6 +492,10 @@
   </si>
   <si>
     <t>第三次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -859,7 +863,7 @@
     <col min="1" max="1" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -875,8 +879,11 @@
       <c r="F1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -885,7 +892,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -901,8 +908,11 @@
       <c r="F3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -918,8 +928,11 @@
       <c r="F4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -927,7 +940,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -943,8 +956,11 @@
       <c r="F6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -957,8 +973,14 @@
       <c r="E7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -969,10 +991,13 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1013,11 @@
       <c r="F9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1005,8 +1033,11 @@
       <c r="F10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1014,7 +1045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1030,8 +1061,11 @@
       <c r="F12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1048,7 +1082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1064,8 +1098,11 @@
       <c r="F14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1081,8 +1118,11 @@
       <c r="F15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1098,8 +1138,11 @@
       <c r="F16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1115,8 +1158,11 @@
       <c r="F17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1132,8 +1178,11 @@
       <c r="F18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1149,8 +1198,11 @@
       <c r="F19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1166,8 +1218,11 @@
       <c r="F20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1183,8 +1238,11 @@
       <c r="F21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1200,8 +1258,11 @@
       <c r="F22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1217,8 +1278,11 @@
       <c r="F23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1234,8 +1298,11 @@
       <c r="F24">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1251,8 +1318,11 @@
       <c r="F25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1265,8 +1335,11 @@
       <c r="F26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1282,8 +1355,11 @@
       <c r="F27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1299,8 +1375,11 @@
       <c r="F28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1316,8 +1395,11 @@
       <c r="F29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1333,8 +1415,11 @@
       <c r="F30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1350,8 +1435,11 @@
       <c r="F31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1367,8 +1455,11 @@
       <c r="F32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1384,8 +1475,11 @@
       <c r="F33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1401,8 +1495,11 @@
       <c r="F34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1412,8 +1509,11 @@
       <c r="D35">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1429,8 +1529,11 @@
       <c r="F36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1446,8 +1549,11 @@
       <c r="F37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1463,8 +1569,11 @@
       <c r="F38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1480,8 +1589,11 @@
       <c r="F39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1497,8 +1609,11 @@
       <c r="F40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1514,8 +1629,11 @@
       <c r="F41">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1531,8 +1649,11 @@
       <c r="F42">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1548,8 +1669,11 @@
       <c r="F43">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1565,8 +1689,11 @@
       <c r="F44">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1582,8 +1709,11 @@
       <c r="F45">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1599,8 +1729,11 @@
       <c r="F46">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1616,8 +1749,11 @@
       <c r="F47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1633,8 +1769,11 @@
       <c r="F48">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1650,8 +1789,11 @@
       <c r="F49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1667,8 +1809,11 @@
       <c r="F50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1684,8 +1829,11 @@
       <c r="F51">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1701,8 +1849,11 @@
       <c r="F52">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1718,8 +1869,11 @@
       <c r="F53">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1735,8 +1889,11 @@
       <c r="F54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1752,8 +1909,11 @@
       <c r="F55">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1769,8 +1929,11 @@
       <c r="F56">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1786,8 +1949,11 @@
       <c r="F57">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1803,8 +1969,11 @@
       <c r="F58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1820,8 +1989,11 @@
       <c r="F59">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1837,8 +2009,11 @@
       <c r="F60">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1854,8 +2029,11 @@
       <c r="F61">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1871,8 +2049,11 @@
       <c r="F62">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1888,8 +2069,11 @@
       <c r="F63">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1905,8 +2089,11 @@
       <c r="F64">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1922,8 +2109,11 @@
       <c r="F65">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1939,8 +2129,11 @@
       <c r="F66">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1957,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1973,8 +2166,11 @@
       <c r="F68">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1990,8 +2186,11 @@
       <c r="F69">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2001,8 +2200,11 @@
       <c r="F70">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2018,8 +2220,11 @@
       <c r="F71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2035,8 +2240,11 @@
       <c r="F72">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2052,8 +2260,11 @@
       <c r="F73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2069,8 +2280,11 @@
       <c r="F74">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2086,8 +2300,11 @@
       <c r="F75">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2103,8 +2320,11 @@
       <c r="F76">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2120,8 +2340,11 @@
       <c r="F77">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2132,7 +2355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2148,8 +2371,11 @@
       <c r="F79">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2163,7 +2389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2174,7 +2400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2190,8 +2416,11 @@
       <c r="F82">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2207,8 +2436,11 @@
       <c r="F83">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2224,8 +2456,11 @@
       <c r="F84">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2241,8 +2476,11 @@
       <c r="F85">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2258,8 +2496,11 @@
       <c r="F86">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2267,7 +2508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2283,8 +2524,11 @@
       <c r="F88">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2300,8 +2544,11 @@
       <c r="F89">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2315,10 +2562,13 @@
         <v>8</v>
       </c>
       <c r="F90">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="G90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2332,7 +2582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2348,8 +2598,11 @@
       <c r="F92">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2365,8 +2618,11 @@
       <c r="F93">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2382,8 +2638,11 @@
       <c r="F94">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2399,8 +2658,11 @@
       <c r="F95">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2416,8 +2678,11 @@
       <c r="F96">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2433,8 +2698,11 @@
       <c r="F97">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2450,8 +2718,11 @@
       <c r="F98">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2467,8 +2738,11 @@
       <c r="F99">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2482,10 +2756,13 @@
         <v>10</v>
       </c>
       <c r="F100">
+        <v>8</v>
+      </c>
+      <c r="G100">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2501,8 +2778,11 @@
       <c r="F101">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2518,8 +2798,11 @@
       <c r="F102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2530,7 +2813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2546,8 +2829,11 @@
       <c r="F104">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2563,8 +2849,11 @@
       <c r="F105">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2580,8 +2869,11 @@
       <c r="F106">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2598,7 +2890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2614,8 +2906,11 @@
       <c r="F108">
         <v>10</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2631,8 +2926,11 @@
       <c r="F109">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2648,8 +2946,11 @@
       <c r="F110">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2665,8 +2966,11 @@
       <c r="F111">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2682,8 +2986,11 @@
       <c r="F112">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2699,8 +3006,11 @@
       <c r="F113">
         <v>10</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2716,8 +3026,11 @@
       <c r="F114">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2733,8 +3046,11 @@
       <c r="F115">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2750,8 +3066,11 @@
       <c r="F116">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2764,8 +3083,11 @@
       <c r="E117">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2781,8 +3103,11 @@
       <c r="F118">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2798,8 +3123,11 @@
       <c r="F119">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2815,8 +3143,11 @@
       <c r="F120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2832,8 +3163,11 @@
       <c r="F121">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2849,8 +3183,11 @@
       <c r="F122">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2866,8 +3203,11 @@
       <c r="F123">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2883,8 +3223,11 @@
       <c r="F124">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2901,7 +3244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2917,8 +3260,11 @@
       <c r="F126">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G126">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2932,10 +3278,13 @@
         <v>10</v>
       </c>
       <c r="F127">
+        <v>8</v>
+      </c>
+      <c r="G127">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2951,8 +3300,11 @@
       <c r="F128">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2966,7 +3318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2982,8 +3334,11 @@
       <c r="F130">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2996,8 +3351,14 @@
       <c r="E131">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F131">
+        <v>10</v>
+      </c>
+      <c r="G131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -3013,8 +3374,11 @@
       <c r="F132">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -3030,8 +3394,11 @@
       <c r="F133">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -3047,8 +3414,11 @@
       <c r="F134">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -3064,8 +3434,11 @@
       <c r="F135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -3081,8 +3454,11 @@
       <c r="F136">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3098,8 +3474,11 @@
       <c r="F137">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -3115,8 +3494,11 @@
       <c r="F138">
         <v>10</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3132,8 +3514,11 @@
       <c r="F139">
         <v>9</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G139">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -3149,8 +3534,11 @@
       <c r="F140">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -3166,8 +3554,11 @@
       <c r="F141">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -3180,8 +3571,11 @@
       <c r="F142">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -3197,8 +3591,11 @@
       <c r="F143">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -3214,8 +3611,11 @@
       <c r="F144">
         <v>10</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G144">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3231,8 +3631,11 @@
       <c r="F145">
         <v>10</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3248,8 +3651,11 @@
       <c r="F146">
         <v>10</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3265,8 +3671,11 @@
       <c r="F147">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G147">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -3274,7 +3683,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3282,7 +3691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -3290,7 +3699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -3303,8 +3712,14 @@
       <c r="E152">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F152">
+        <v>9</v>
+      </c>
+      <c r="G152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -3318,10 +3733,13 @@
         <v>8</v>
       </c>
       <c r="F153">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="G153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -3335,6 +3753,9 @@
         <v>10</v>
       </c>
       <c r="F154">
+        <v>10</v>
+      </c>
+      <c r="G154">
         <v>10</v>
       </c>
     </row>

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,6 +496,14 @@
   </si>
   <si>
     <t>第四次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +511,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +531,14 @@
       <color theme="1"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -545,9 +561,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -852,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -863,7 +880,7 @@
     <col min="1" max="1" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,8 +899,14 @@
       <c r="G1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -892,7 +915,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -911,8 +934,11 @@
       <c r="G3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -931,8 +957,11 @@
       <c r="G4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -940,7 +969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -959,8 +988,11 @@
       <c r="G6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -979,8 +1011,11 @@
       <c r="G7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1031,11 @@
       <c r="G8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1016,8 +1054,11 @@
       <c r="G9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1077,11 @@
       <c r="G10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1045,7 +1089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1064,8 +1108,14 @@
       <c r="G12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1082,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1101,8 +1151,11 @@
       <c r="G14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1121,8 +1174,11 @@
       <c r="G15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1141,8 +1197,14 @@
       <c r="G16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1161,8 +1223,11 @@
       <c r="G17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1181,8 +1246,11 @@
       <c r="G18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1201,8 +1269,11 @@
       <c r="G19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1221,8 +1292,11 @@
       <c r="G20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1241,8 +1315,11 @@
       <c r="G21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1261,8 +1338,11 @@
       <c r="G22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1281,8 +1361,11 @@
       <c r="G23">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1302,7 +1385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1321,8 +1404,11 @@
       <c r="G25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1338,8 +1424,11 @@
       <c r="G26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1358,8 +1447,11 @@
       <c r="G27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1378,8 +1470,11 @@
       <c r="G28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1398,8 +1493,11 @@
       <c r="G29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1418,8 +1516,11 @@
       <c r="G30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1438,8 +1539,11 @@
       <c r="G31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1458,8 +1562,11 @@
       <c r="G32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1478,8 +1585,11 @@
       <c r="G33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1498,8 +1608,11 @@
       <c r="G34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1512,8 +1625,11 @@
       <c r="G35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1532,8 +1648,11 @@
       <c r="G36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1552,8 +1671,11 @@
       <c r="G37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1572,8 +1694,11 @@
       <c r="G38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1592,8 +1717,11 @@
       <c r="G39">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1612,8 +1740,11 @@
       <c r="G40">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1632,8 +1763,14 @@
       <c r="G41">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1652,8 +1789,11 @@
       <c r="G42">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1672,8 +1812,11 @@
       <c r="G43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1692,8 +1835,11 @@
       <c r="G44">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1712,8 +1858,11 @@
       <c r="G45">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1732,8 +1881,14 @@
       <c r="G46">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1752,8 +1907,11 @@
       <c r="G47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1772,8 +1930,11 @@
       <c r="G48">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1792,8 +1953,11 @@
       <c r="G49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1812,8 +1976,11 @@
       <c r="G50">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1832,8 +1999,11 @@
       <c r="G51">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1852,8 +2022,11 @@
       <c r="G52">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1872,8 +2045,11 @@
       <c r="G53">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1892,8 +2068,11 @@
       <c r="G54">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1912,8 +2091,11 @@
       <c r="G55">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1932,8 +2114,11 @@
       <c r="G56">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1952,8 +2137,11 @@
       <c r="G57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1972,8 +2160,11 @@
       <c r="G58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1992,8 +2183,11 @@
       <c r="G59">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2012,8 +2206,11 @@
       <c r="G60">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2032,8 +2229,11 @@
       <c r="G61">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2052,8 +2252,11 @@
       <c r="G62">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2072,8 +2275,11 @@
       <c r="G63">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2092,8 +2298,14 @@
       <c r="G64">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H64">
+        <v>9</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2112,8 +2324,11 @@
       <c r="G65">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2132,8 +2347,11 @@
       <c r="G66">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2150,7 +2368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2169,8 +2387,11 @@
       <c r="G68">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2189,8 +2410,11 @@
       <c r="G69">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2204,7 +2428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2224,7 +2448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2243,8 +2467,11 @@
       <c r="G72">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2263,8 +2490,11 @@
       <c r="G73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2283,8 +2513,11 @@
       <c r="G74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2303,8 +2536,11 @@
       <c r="G75">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2323,8 +2559,11 @@
       <c r="G76">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2343,8 +2582,11 @@
       <c r="G77">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2354,8 +2596,11 @@
       <c r="E78">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2374,8 +2619,11 @@
       <c r="G79">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2388,8 +2636,11 @@
       <c r="F80">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2400,7 +2651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2419,8 +2670,11 @@
       <c r="G82">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2439,8 +2693,11 @@
       <c r="G83">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2459,8 +2716,11 @@
       <c r="G84">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2479,8 +2739,11 @@
       <c r="G85">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2499,8 +2762,11 @@
       <c r="G86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2508,7 +2774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2527,8 +2793,11 @@
       <c r="G88">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2547,8 +2816,11 @@
       <c r="G89">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2567,8 +2839,11 @@
       <c r="G90">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2582,7 +2857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2601,8 +2876,11 @@
       <c r="G92">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2622,7 +2900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2641,8 +2919,11 @@
       <c r="G94">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2661,8 +2942,11 @@
       <c r="G95">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2681,8 +2965,11 @@
       <c r="G96">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2701,8 +2988,11 @@
       <c r="G97">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2721,8 +3011,11 @@
       <c r="G98">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2741,8 +3034,11 @@
       <c r="G99">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2761,8 +3057,11 @@
       <c r="G100">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2781,8 +3080,11 @@
       <c r="G101">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2801,8 +3103,11 @@
       <c r="G102">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2813,7 +3118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2832,8 +3137,11 @@
       <c r="G104">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2852,8 +3160,11 @@
       <c r="G105">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H105">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2872,8 +3183,11 @@
       <c r="G106">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2890,7 +3204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2909,8 +3223,11 @@
       <c r="G108">
         <v>10</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2929,8 +3246,14 @@
       <c r="G109">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H109">
+        <v>10</v>
+      </c>
+      <c r="I109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2949,8 +3272,14 @@
       <c r="G110">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H110">
+        <v>10</v>
+      </c>
+      <c r="I110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2969,8 +3298,11 @@
       <c r="G111">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2989,8 +3321,11 @@
       <c r="G112">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H112" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -3009,8 +3344,11 @@
       <c r="G113">
         <v>10</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -3029,8 +3367,11 @@
       <c r="G114">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -3049,8 +3390,11 @@
       <c r="G115">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -3069,8 +3413,11 @@
       <c r="G116">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -3086,8 +3433,11 @@
       <c r="G117">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -3106,8 +3456,11 @@
       <c r="G118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -3126,8 +3479,11 @@
       <c r="G119">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -3146,8 +3502,11 @@
       <c r="G120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3166,8 +3525,11 @@
       <c r="G121">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -3186,8 +3548,11 @@
       <c r="G122">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H122">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -3206,8 +3571,11 @@
       <c r="G123">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -3226,8 +3594,11 @@
       <c r="G124">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -3243,8 +3614,11 @@
       <c r="F125">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3263,8 +3637,11 @@
       <c r="G126">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -3283,8 +3660,11 @@
       <c r="G127">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -3303,8 +3683,14 @@
       <c r="G128">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H128">
+        <v>10</v>
+      </c>
+      <c r="I128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -3318,7 +3704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -3337,8 +3723,11 @@
       <c r="G130">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -3357,8 +3746,11 @@
       <c r="G131">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -3377,8 +3769,11 @@
       <c r="G132">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -3397,8 +3792,11 @@
       <c r="G133">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -3417,8 +3815,11 @@
       <c r="G134">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -3437,8 +3838,11 @@
       <c r="G135">
         <v>10</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -3457,8 +3861,11 @@
       <c r="G136">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3477,8 +3884,11 @@
       <c r="G137">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -3497,8 +3907,11 @@
       <c r="G138">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3517,8 +3930,11 @@
       <c r="G139">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -3537,8 +3953,11 @@
       <c r="G140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -3557,8 +3976,11 @@
       <c r="G141">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -3574,8 +3996,11 @@
       <c r="G142">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -3594,8 +4019,11 @@
       <c r="G143">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -3614,8 +4042,11 @@
       <c r="G144">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3634,8 +4065,11 @@
       <c r="G145">
         <v>10</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3654,8 +4088,11 @@
       <c r="G146">
         <v>10</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3674,8 +4111,11 @@
       <c r="G147">
         <v>9</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -3683,7 +4123,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3691,7 +4131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -3699,7 +4139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -3718,8 +4158,11 @@
       <c r="G152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -3738,8 +4181,11 @@
       <c r="G153">
         <v>10</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -3756,6 +4202,9 @@
         <v>10</v>
       </c>
       <c r="G154">
+        <v>10</v>
+      </c>
+      <c r="H154">
         <v>10</v>
       </c>
     </row>

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -24,10 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BC17010025</t>
   </si>
   <si>
@@ -487,23 +483,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二次</t>
+    <t>第一章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第三次</t>
+    <t>第二章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第四次</t>
+    <t>第三章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第五次</t>
+    <t>第四章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第六次</t>
+    <t>第五章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
         <v>155</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -935,12 +935,15 @@
         <v>8</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -960,10 +963,13 @@
       <c r="H4">
         <v>9</v>
       </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>38</v>
@@ -971,7 +977,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -991,10 +997,13 @@
       <c r="H6">
         <v>8</v>
       </c>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1013,11 +1022,14 @@
       </c>
       <c r="H7">
         <v>9</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1032,12 +1044,15 @@
         <v>9</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1056,11 +1071,14 @@
       </c>
       <c r="H9">
         <v>8</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>204</v>
@@ -1080,18 +1098,36 @@
       <c r="H10">
         <v>9</v>
       </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -1117,7 +1153,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -1130,11 +1166,20 @@
       </c>
       <c r="F13">
         <v>10</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -1152,12 +1197,15 @@
         <v>10</v>
       </c>
       <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -1175,12 +1223,15 @@
         <v>10</v>
       </c>
       <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -1204,32 +1255,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>17</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>18</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -1249,79 +1303,91 @@
       <c r="H18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>9</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="F20">
-        <v>9</v>
-      </c>
-      <c r="G20">
-        <v>9</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>21</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>10</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>22</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -1341,33 +1407,39 @@
       <c r="H22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>23</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>9</v>
-      </c>
-      <c r="H23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>24</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -1384,33 +1456,42 @@
       <c r="G24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>25</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>8</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>26</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -1427,126 +1508,144 @@
       <c r="H26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>10</v>
-      </c>
-      <c r="H27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>8</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>8</v>
-      </c>
-      <c r="F30">
-        <v>9</v>
-      </c>
-      <c r="G30">
-        <v>10</v>
-      </c>
-      <c r="H30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31">
-        <v>10</v>
-      </c>
-      <c r="H31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
       <c r="B32">
         <v>6</v>
       </c>
@@ -1564,11 +1663,14 @@
       </c>
       <c r="H32">
         <v>9</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -1587,11 +1689,14 @@
       </c>
       <c r="H33">
         <v>9</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -1614,7 +1719,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -1622,16 +1727,25 @@
       <c r="D35">
         <v>9</v>
       </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
       <c r="G35">
         <v>10</v>
       </c>
       <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -1650,11 +1764,14 @@
       </c>
       <c r="H36">
         <v>10</v>
+      </c>
+      <c r="I36">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -1672,12 +1789,15 @@
         <v>10</v>
       </c>
       <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -1695,12 +1815,15 @@
         <v>10</v>
       </c>
       <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -1718,12 +1841,15 @@
         <v>9</v>
       </c>
       <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -1741,12 +1867,15 @@
         <v>8</v>
       </c>
       <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -1772,7 +1901,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -1791,11 +1920,14 @@
       </c>
       <c r="H42">
         <v>8</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -1813,12 +1945,15 @@
         <v>10</v>
       </c>
       <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -1836,12 +1971,15 @@
         <v>9</v>
       </c>
       <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -1860,11 +1998,14 @@
       </c>
       <c r="H45">
         <v>8</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -1890,7 +2031,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -1910,10 +2051,13 @@
       <c r="H47">
         <v>10</v>
       </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -1933,10 +2077,13 @@
       <c r="H48">
         <v>5</v>
       </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -1954,12 +2101,15 @@
         <v>10</v>
       </c>
       <c r="H49">
+        <v>10</v>
+      </c>
+      <c r="I49">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -1982,7 +2132,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -2005,7 +2155,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -2024,11 +2174,14 @@
       </c>
       <c r="H52">
         <v>8</v>
+      </c>
+      <c r="I52">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -2051,7 +2204,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -2071,10 +2224,13 @@
       <c r="H54">
         <v>9</v>
       </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -2092,12 +2248,15 @@
         <v>10</v>
       </c>
       <c r="H55">
+        <v>10</v>
+      </c>
+      <c r="I55">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -2120,7 +2279,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -2138,12 +2297,15 @@
         <v>10</v>
       </c>
       <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -2162,11 +2324,14 @@
       </c>
       <c r="H58">
         <v>10</v>
+      </c>
+      <c r="I58">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -2184,12 +2349,15 @@
         <v>10</v>
       </c>
       <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -2212,7 +2380,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -2231,11 +2399,14 @@
       </c>
       <c r="H61">
         <v>10</v>
+      </c>
+      <c r="I61">
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -2253,12 +2424,15 @@
         <v>9</v>
       </c>
       <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -2276,61 +2450,67 @@
         <v>8</v>
       </c>
       <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="H64">
+        <v>9</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
-        <v>6</v>
-      </c>
-      <c r="D64">
-        <v>10</v>
-      </c>
-      <c r="E64">
-        <v>10</v>
-      </c>
-      <c r="F64">
-        <v>10</v>
-      </c>
-      <c r="G64">
-        <v>10</v>
-      </c>
-      <c r="H64">
-        <v>9</v>
-      </c>
-      <c r="I64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>10</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>65</v>
-      </c>
-      <c r="B65">
-        <v>6</v>
-      </c>
-      <c r="D65">
-        <v>10</v>
-      </c>
-      <c r="E65">
-        <v>10</v>
-      </c>
-      <c r="F65">
-        <v>10</v>
-      </c>
-      <c r="G65">
-        <v>10</v>
-      </c>
-      <c r="H65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>66</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -2350,10 +2530,13 @@
       <c r="H66">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -2368,241 +2551,280 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>10</v>
+      </c>
+      <c r="H68">
+        <v>10</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
-        <v>6</v>
-      </c>
-      <c r="D68">
-        <v>10</v>
-      </c>
-      <c r="E68">
-        <v>9</v>
-      </c>
-      <c r="F68">
-        <v>10</v>
-      </c>
-      <c r="G68">
-        <v>10</v>
-      </c>
-      <c r="H68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
-        <v>6</v>
-      </c>
-      <c r="D69">
-        <v>10</v>
-      </c>
-      <c r="E69">
-        <v>8</v>
-      </c>
-      <c r="F69">
-        <v>10</v>
-      </c>
-      <c r="G69">
-        <v>10</v>
-      </c>
-      <c r="H69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
-        <v>6</v>
-      </c>
-      <c r="F70">
-        <v>10</v>
-      </c>
-      <c r="G70">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="H71">
+        <v>9</v>
+      </c>
+      <c r="I71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
-        <v>6</v>
-      </c>
-      <c r="D71">
-        <v>10</v>
-      </c>
-      <c r="E71">
-        <v>10</v>
-      </c>
-      <c r="F71">
-        <v>10</v>
-      </c>
-      <c r="G71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>9</v>
+      </c>
+      <c r="I72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
-        <v>6</v>
-      </c>
-      <c r="D72">
-        <v>10</v>
-      </c>
-      <c r="E72">
-        <v>10</v>
-      </c>
-      <c r="F72">
-        <v>8</v>
-      </c>
-      <c r="G72">
-        <v>10</v>
-      </c>
-      <c r="H72">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73">
+        <v>8</v>
+      </c>
+      <c r="H73">
+        <v>8</v>
+      </c>
+      <c r="I73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
-        <v>6</v>
-      </c>
-      <c r="D73">
-        <v>10</v>
-      </c>
-      <c r="E73">
-        <v>9</v>
-      </c>
-      <c r="F73">
-        <v>8</v>
-      </c>
-      <c r="G73">
-        <v>8</v>
-      </c>
-      <c r="H73">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74">
+        <v>9</v>
+      </c>
+      <c r="H74">
+        <v>10</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
-        <v>6</v>
-      </c>
-      <c r="D74">
-        <v>10</v>
-      </c>
-      <c r="E74">
-        <v>10</v>
-      </c>
-      <c r="F74">
-        <v>8</v>
-      </c>
-      <c r="G74">
-        <v>9</v>
-      </c>
-      <c r="H74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>9</v>
+      </c>
+      <c r="H75">
+        <v>10</v>
+      </c>
+      <c r="I75" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
-        <v>6</v>
-      </c>
-      <c r="D75">
-        <v>10</v>
-      </c>
-      <c r="E75">
-        <v>9</v>
-      </c>
-      <c r="F75">
-        <v>10</v>
-      </c>
-      <c r="G75">
-        <v>9</v>
-      </c>
-      <c r="H75">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76">
+        <v>9</v>
+      </c>
+      <c r="H76">
+        <v>9</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
-        <v>6</v>
-      </c>
-      <c r="D76">
-        <v>10</v>
-      </c>
-      <c r="E76">
-        <v>9</v>
-      </c>
-      <c r="F76">
-        <v>10</v>
-      </c>
-      <c r="G76">
-        <v>9</v>
-      </c>
-      <c r="H76">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <v>10</v>
+      </c>
+      <c r="I77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
-        <v>6</v>
-      </c>
-      <c r="D77">
-        <v>10</v>
-      </c>
-      <c r="E77">
-        <v>8</v>
-      </c>
-      <c r="F77">
-        <v>8</v>
-      </c>
-      <c r="G77">
-        <v>10</v>
-      </c>
-      <c r="H77">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
       <c r="B78">
         <v>6</v>
       </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
       <c r="E78">
         <v>10</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78">
+        <v>8</v>
       </c>
       <c r="H78">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -2623,60 +2845,72 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>9</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+      <c r="H80">
+        <v>9</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
-        <v>6</v>
-      </c>
-      <c r="D80">
-        <v>10</v>
-      </c>
-      <c r="F80">
-        <v>9</v>
-      </c>
-      <c r="H80">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
-        <v>6</v>
-      </c>
-      <c r="D81">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82">
+        <v>10</v>
+      </c>
+      <c r="H82">
+        <v>10</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
         <v>82</v>
-      </c>
-      <c r="B82">
-        <v>6</v>
-      </c>
-      <c r="D82">
-        <v>10</v>
-      </c>
-      <c r="E82">
-        <v>10</v>
-      </c>
-      <c r="F82">
-        <v>9</v>
-      </c>
-      <c r="G82">
-        <v>10</v>
-      </c>
-      <c r="H82">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>83</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -2696,10 +2930,13 @@
       <c r="H83">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -2719,33 +2956,39 @@
       <c r="H84">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>8</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>10</v>
+      </c>
+      <c r="H85">
+        <v>10</v>
+      </c>
+      <c r="I85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>85</v>
-      </c>
-      <c r="B85">
-        <v>6</v>
-      </c>
-      <c r="D85">
-        <v>10</v>
-      </c>
-      <c r="E85">
-        <v>8</v>
-      </c>
-      <c r="F85">
-        <v>10</v>
-      </c>
-      <c r="G85">
-        <v>10</v>
-      </c>
-      <c r="H85">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>86</v>
       </c>
       <c r="B86">
         <v>207</v>
@@ -2765,64 +3008,82 @@
       <c r="H86">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>8</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>10</v>
+      </c>
+      <c r="H88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="B88">
-        <v>10</v>
-      </c>
-      <c r="D88">
-        <v>8</v>
-      </c>
-      <c r="E88">
-        <v>8</v>
-      </c>
-      <c r="F88">
-        <v>10</v>
-      </c>
-      <c r="G88">
-        <v>10</v>
-      </c>
-      <c r="H88">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89">
+        <v>6</v>
+      </c>
+      <c r="H89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>89</v>
-      </c>
-      <c r="B89">
-        <v>10</v>
-      </c>
-      <c r="D89">
-        <v>8</v>
-      </c>
-      <c r="E89">
-        <v>6</v>
-      </c>
-      <c r="F89">
-        <v>9</v>
-      </c>
-      <c r="G89">
-        <v>6</v>
-      </c>
-      <c r="H89">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>90</v>
       </c>
       <c r="B90">
         <v>10</v>
@@ -2842,90 +3103,99 @@
       <c r="H90">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>9</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B91">
-        <v>10</v>
-      </c>
-      <c r="D91">
-        <v>9</v>
-      </c>
-      <c r="E91">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92">
+        <v>8</v>
+      </c>
+      <c r="H92">
+        <v>10</v>
+      </c>
+      <c r="I92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B92">
-        <v>10</v>
-      </c>
-      <c r="D92">
-        <v>9</v>
-      </c>
-      <c r="E92">
-        <v>10</v>
-      </c>
-      <c r="F92">
-        <v>5</v>
-      </c>
-      <c r="G92">
-        <v>8</v>
-      </c>
-      <c r="H92">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>8</v>
+      </c>
+      <c r="G93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="B93">
-        <v>10</v>
-      </c>
-      <c r="D93">
-        <v>10</v>
-      </c>
-      <c r="E93">
-        <v>10</v>
-      </c>
-      <c r="F93">
-        <v>8</v>
-      </c>
-      <c r="G93">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>9</v>
+      </c>
+      <c r="G94">
+        <v>9</v>
+      </c>
+      <c r="H94">
+        <v>10</v>
+      </c>
+      <c r="I94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>94</v>
-      </c>
-      <c r="B94">
-        <v>10</v>
-      </c>
-      <c r="D94">
-        <v>10</v>
-      </c>
-      <c r="E94">
-        <v>10</v>
-      </c>
-      <c r="F94">
-        <v>9</v>
-      </c>
-      <c r="G94">
-        <v>9</v>
-      </c>
-      <c r="H94">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>95</v>
       </c>
       <c r="B95">
         <v>10</v>
@@ -2945,10 +3215,13 @@
       <c r="H95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>10</v>
@@ -2966,12 +3239,15 @@
         <v>8</v>
       </c>
       <c r="H96">
+        <v>10</v>
+      </c>
+      <c r="I96">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>10</v>
@@ -2990,11 +3266,14 @@
       </c>
       <c r="H97">
         <v>9</v>
+      </c>
+      <c r="I97">
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>10</v>
@@ -3012,12 +3291,15 @@
         <v>10</v>
       </c>
       <c r="H98">
+        <v>10</v>
+      </c>
+      <c r="I98">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>10</v>
@@ -3035,12 +3317,15 @@
         <v>8</v>
       </c>
       <c r="H99">
+        <v>10</v>
+      </c>
+      <c r="I99">
         <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>10</v>
@@ -3060,10 +3345,13 @@
       <c r="H100">
         <v>5</v>
       </c>
+      <c r="I100">
+        <v>10</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>10</v>
@@ -3082,11 +3370,14 @@
       </c>
       <c r="H101">
         <v>9</v>
+      </c>
+      <c r="I101">
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>10</v>
@@ -3106,10 +3397,13 @@
       <c r="H102">
         <v>8</v>
       </c>
+      <c r="I102">
+        <v>8</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>10</v>
@@ -3120,7 +3414,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>10</v>
@@ -3140,10 +3434,13 @@
       <c r="H104">
         <v>10</v>
       </c>
+      <c r="I104">
+        <v>10</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>10</v>
@@ -3162,11 +3459,14 @@
       </c>
       <c r="H105">
         <v>9</v>
+      </c>
+      <c r="I105">
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>10</v>
@@ -3189,7 +3489,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -3206,7 +3506,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>23</v>
@@ -3229,7 +3529,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>23</v>
@@ -3255,7 +3555,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>23</v>
@@ -3281,7 +3581,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>23</v>
@@ -3301,10 +3601,13 @@
       <c r="H111">
         <v>8</v>
       </c>
+      <c r="I111">
+        <v>9</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>33</v>
@@ -3324,10 +3627,13 @@
       <c r="H112" s="2">
         <v>10</v>
       </c>
+      <c r="I112" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>33</v>
@@ -3347,10 +3653,13 @@
       <c r="H113">
         <v>10</v>
       </c>
+      <c r="I113">
+        <v>10</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>33</v>
@@ -3370,10 +3679,13 @@
       <c r="H114">
         <v>10</v>
       </c>
+      <c r="I114">
+        <v>10</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>33</v>
@@ -3393,10 +3705,13 @@
       <c r="H115">
         <v>8</v>
       </c>
+      <c r="I115">
+        <v>8</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>33</v>
@@ -3416,10 +3731,13 @@
       <c r="H116">
         <v>8</v>
       </c>
+      <c r="I116">
+        <v>8</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>33</v>
@@ -3436,10 +3754,13 @@
       <c r="H117">
         <v>5</v>
       </c>
+      <c r="I117">
+        <v>7</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>168</v>
@@ -3459,10 +3780,13 @@
       <c r="H118">
         <v>9</v>
       </c>
+      <c r="I118">
+        <v>10</v>
+      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>168</v>
@@ -3482,10 +3806,13 @@
       <c r="H119">
         <v>8</v>
       </c>
+      <c r="I119">
+        <v>10</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>168</v>
@@ -3505,10 +3832,13 @@
       <c r="H120">
         <v>9</v>
       </c>
+      <c r="I120">
+        <v>10</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>168</v>
@@ -3528,10 +3858,13 @@
       <c r="H121">
         <v>7</v>
       </c>
+      <c r="I121">
+        <v>10</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>168</v>
@@ -3551,10 +3884,13 @@
       <c r="H122">
         <v>9</v>
       </c>
+      <c r="I122">
+        <v>10</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>168</v>
@@ -3574,10 +3910,13 @@
       <c r="H123">
         <v>9</v>
       </c>
+      <c r="I123">
+        <v>10</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>168</v>
@@ -3597,10 +3936,13 @@
       <c r="H124">
         <v>10</v>
       </c>
+      <c r="I124">
+        <v>8</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>168</v>
@@ -3614,13 +3956,19 @@
       <c r="F125">
         <v>8</v>
       </c>
+      <c r="G125">
+        <v>9</v>
+      </c>
       <c r="H125">
+        <v>9</v>
+      </c>
+      <c r="I125">
         <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>219</v>
@@ -3643,7 +3991,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>219</v>
@@ -3663,10 +4011,13 @@
       <c r="H127">
         <v>9</v>
       </c>
+      <c r="I127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>234</v>
@@ -3690,23 +4041,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>10</v>
+      </c>
+      <c r="E129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
         <v>129</v>
-      </c>
-      <c r="B129">
-        <v>6</v>
-      </c>
-      <c r="D129">
-        <v>10</v>
-      </c>
-      <c r="E129">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
-        <v>130</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -3726,10 +4077,13 @@
       <c r="H130">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>23</v>
@@ -3749,10 +4103,13 @@
       <c r="H131">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>23</v>
@@ -3772,10 +4129,13 @@
       <c r="H132">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>23</v>
@@ -3795,10 +4155,13 @@
       <c r="H133">
         <v>10</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>23</v>
@@ -3818,10 +4181,13 @@
       <c r="H134">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>23</v>
@@ -3841,10 +4207,13 @@
       <c r="H135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>23</v>
@@ -3864,10 +4233,13 @@
       <c r="H136">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>23</v>
@@ -3887,10 +4259,13 @@
       <c r="H137">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>23</v>
@@ -3910,10 +4285,13 @@
       <c r="H138">
         <v>10</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>23</v>
@@ -3933,10 +4311,13 @@
       <c r="H139">
         <v>10</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>23</v>
@@ -3956,10 +4337,13 @@
       <c r="H140">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>23</v>
@@ -3979,10 +4363,13 @@
       <c r="H141">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>23</v>
@@ -3990,6 +4377,9 @@
       <c r="D142">
         <v>10</v>
       </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
       <c r="F142">
         <v>8</v>
       </c>
@@ -3999,10 +4389,13 @@
       <c r="H142">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>23</v>
@@ -4022,10 +4415,13 @@
       <c r="H143">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>23</v>
@@ -4045,10 +4441,13 @@
       <c r="H144">
         <v>10</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>23</v>
@@ -4068,10 +4467,13 @@
       <c r="H145">
         <v>10</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>23</v>
@@ -4091,10 +4493,13 @@
       <c r="H146">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>23</v>
@@ -4114,80 +4519,83 @@
       <c r="H147">
         <v>10</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>168</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
         <v>149</v>
       </c>
-      <c r="B149">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A150" t="s">
+      <c r="B150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="D152">
+        <v>10</v>
+      </c>
+      <c r="E152">
+        <v>8</v>
+      </c>
+      <c r="F152">
+        <v>9</v>
+      </c>
+      <c r="G152">
+        <v>9</v>
+      </c>
+      <c r="H152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
         <v>150</v>
       </c>
-      <c r="B150">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A152" t="s">
+      <c r="B153">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>10</v>
+      </c>
+      <c r="E153">
+        <v>8</v>
+      </c>
+      <c r="F153">
+        <v>9</v>
+      </c>
+      <c r="G153">
+        <v>10</v>
+      </c>
+      <c r="H153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
         <v>153</v>
-      </c>
-      <c r="B152">
-        <v>6</v>
-      </c>
-      <c r="D152">
-        <v>10</v>
-      </c>
-      <c r="E152">
-        <v>8</v>
-      </c>
-      <c r="F152">
-        <v>9</v>
-      </c>
-      <c r="G152">
-        <v>9</v>
-      </c>
-      <c r="H152">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A153" t="s">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>6</v>
-      </c>
-      <c r="D153">
-        <v>10</v>
-      </c>
-      <c r="E153">
-        <v>8</v>
-      </c>
-      <c r="F153">
-        <v>9</v>
-      </c>
-      <c r="G153">
-        <v>10</v>
-      </c>
-      <c r="H153">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A154" t="s">
-        <v>154</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -4205,6 +4613,9 @@
         <v>10</v>
       </c>
       <c r="H154">
+        <v>10</v>
+      </c>
+      <c r="I154">
         <v>10</v>
       </c>
     </row>

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -872,7 +872,7 @@
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1034,6 +1034,9 @@
       <c r="B8">
         <v>6</v>
       </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
       <c r="E8">
         <v>10</v>
       </c>
@@ -1120,6 +1123,9 @@
       </c>
       <c r="G11">
         <v>9</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
       </c>
       <c r="I11">
         <v>9</v>
@@ -2276,6 +2282,9 @@
       <c r="H56">
         <v>7</v>
       </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
@@ -3034,6 +3043,9 @@
       <c r="H87">
         <v>5</v>
       </c>
+      <c r="I87">
+        <v>10</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
@@ -4569,6 +4581,9 @@
       <c r="H152">
         <v>8</v>
       </c>
+      <c r="I152">
+        <v>10</v>
+      </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
@@ -4591,6 +4606,9 @@
       </c>
       <c r="H153">
         <v>8</v>
+      </c>
+      <c r="I153">
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2135,6 +2135,9 @@
       <c r="H50">
         <v>7</v>
       </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
@@ -2158,6 +2161,9 @@
       <c r="H51">
         <v>7</v>
       </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
@@ -2557,7 +2563,16 @@
         <v>9</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>8</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -2619,11 +2634,23 @@
       <c r="B70">
         <v>6</v>
       </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>8</v>
+      </c>
       <c r="F70">
         <v>10</v>
       </c>
       <c r="G70">
         <v>8</v>
+      </c>
+      <c r="H70">
+        <v>7</v>
+      </c>
+      <c r="I70">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -2830,6 +2857,9 @@
       <c r="H78">
         <v>5</v>
       </c>
+      <c r="I78">
+        <v>10</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
@@ -2853,6 +2883,9 @@
       <c r="H79">
         <v>7</v>
       </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
@@ -3423,6 +3456,21 @@
       <c r="D103">
         <v>8</v>
       </c>
+      <c r="E103">
+        <v>8</v>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+      <c r="G103">
+        <v>8</v>
+      </c>
+      <c r="H103">
+        <v>8</v>
+      </c>
+      <c r="I103">
+        <v>8</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
@@ -3513,7 +3561,16 @@
         <v>9</v>
       </c>
       <c r="F107">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="G107">
+        <v>10</v>
+      </c>
+      <c r="H107">
+        <v>10</v>
+      </c>
+      <c r="I107">
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
@@ -3760,6 +3817,9 @@
       <c r="E117">
         <v>10</v>
       </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
       <c r="G117">
         <v>10</v>
       </c>
@@ -4065,6 +4125,18 @@
       </c>
       <c r="E129">
         <v>8</v>
+      </c>
+      <c r="F129">
+        <v>7</v>
+      </c>
+      <c r="G129">
+        <v>7</v>
+      </c>
+      <c r="H129">
+        <v>10</v>
+      </c>
+      <c r="I129">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -511,7 +511,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,12 +525,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -561,10 +555,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -871,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -906,14 +899,31 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>151</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -997,7 +1007,7 @@
       <c r="H6">
         <v>8</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1502,6 +1512,9 @@
       <c r="B26">
         <v>6</v>
       </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
       <c r="E26">
         <v>10</v>
       </c>
@@ -2779,7 +2792,7 @@
       <c r="H75">
         <v>10</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2923,6 +2936,21 @@
       <c r="D81">
         <v>10</v>
       </c>
+      <c r="E81">
+        <v>7</v>
+      </c>
+      <c r="F81">
+        <v>7</v>
+      </c>
+      <c r="G81">
+        <v>7</v>
+      </c>
+      <c r="H81">
+        <v>8</v>
+      </c>
+      <c r="I81">
+        <v>8</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
@@ -3165,6 +3193,18 @@
       <c r="E91">
         <v>10</v>
       </c>
+      <c r="F91">
+        <v>7</v>
+      </c>
+      <c r="G91">
+        <v>7</v>
+      </c>
+      <c r="H91">
+        <v>7</v>
+      </c>
+      <c r="I91">
+        <v>7</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
@@ -3546,6 +3586,9 @@
       <c r="H106">
         <v>9</v>
       </c>
+      <c r="I106">
+        <v>8</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
@@ -3693,10 +3736,10 @@
       <c r="G112">
         <v>10</v>
       </c>
-      <c r="H112" s="2">
-        <v>10</v>
-      </c>
-      <c r="I112" s="2">
+      <c r="H112" s="1">
+        <v>10</v>
+      </c>
+      <c r="I112" s="1">
         <v>10</v>
       </c>
     </row>

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2397,13 +2397,16 @@
         <v>10</v>
       </c>
       <c r="F60">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G60">
         <v>10</v>
       </c>
       <c r="H60">
         <v>5</v>
+      </c>
+      <c r="I60">
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3254,6 +3254,12 @@
       <c r="G93">
         <v>9</v>
       </c>
+      <c r="H93">
+        <v>10</v>
+      </c>
+      <c r="I93">
+        <v>10</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" t="s">

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -459,9 +459,6 @@
     <t>SC17023133</t>
   </si>
   <si>
-    <t>SL15214001</t>
-  </si>
-  <si>
     <t>SL17010001</t>
   </si>
   <si>
@@ -504,6 +501,10 @@
   </si>
   <si>
     <t>第六章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL15214001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -881,27 +882,27 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
         <v>154</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>155</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>156</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>157</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>158</v>
-      </c>
-      <c r="I1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -4661,15 +4662,33 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B148">
         <v>168</v>
       </c>
+      <c r="D148">
+        <v>10</v>
+      </c>
+      <c r="E148">
+        <v>10</v>
+      </c>
+      <c r="F148">
+        <v>10</v>
+      </c>
+      <c r="G148">
+        <v>10</v>
+      </c>
+      <c r="H148">
+        <v>10</v>
+      </c>
+      <c r="I148">
+        <v>10</v>
+      </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>10</v>
@@ -4677,7 +4696,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>10</v>
@@ -4685,7 +4704,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152">
         <v>6</v>
@@ -4711,7 +4730,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B153">
         <v>6</v>
@@ -4737,7 +4756,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>2</v>

--- a/作业统计/算法设计与分析-作业统计-纸质版.xlsx
+++ b/作业统计/算法设计与分析-作业统计-纸质版.xlsx
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1736,6 +1736,9 @@
       <c r="H34">
         <v>10</v>
       </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
@@ -4783,6 +4786,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>